--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H2">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I2">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J2">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N2">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O2">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P2">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q2">
-        <v>34.389386131552</v>
+        <v>34.5311333975825</v>
       </c>
       <c r="R2">
-        <v>137.557544526208</v>
+        <v>138.12453359033</v>
       </c>
       <c r="S2">
-        <v>0.004578417797441449</v>
+        <v>0.007069767676288773</v>
       </c>
       <c r="T2">
-        <v>0.002677891064331419</v>
+        <v>0.003810298953672589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H3">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I3">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J3">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P3">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q3">
-        <v>31.042250498217</v>
+        <v>37.07259392949</v>
       </c>
       <c r="R3">
-        <v>186.253502989302</v>
+        <v>222.43556357694</v>
       </c>
       <c r="S3">
-        <v>0.004132798172377795</v>
+        <v>0.007590096253754499</v>
       </c>
       <c r="T3">
-        <v>0.003625875942125807</v>
+        <v>0.006136100322847521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H4">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I4">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J4">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N4">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O4">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P4">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q4">
-        <v>156.6579275533503</v>
+        <v>90.89691664708165</v>
       </c>
       <c r="R4">
-        <v>939.9475653201021</v>
+        <v>545.3814998824899</v>
       </c>
       <c r="S4">
-        <v>0.02085659339416021</v>
+        <v>0.01860987520412064</v>
       </c>
       <c r="T4">
-        <v>0.01829835793289557</v>
+        <v>0.01504487656420309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H5">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I5">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J5">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N5">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O5">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P5">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q5">
-        <v>35.8343310444745</v>
+        <v>34.9889672791175</v>
       </c>
       <c r="R5">
-        <v>143.337324177898</v>
+        <v>139.95586911647</v>
       </c>
       <c r="S5">
-        <v>0.004770789986940265</v>
+        <v>0.007163502774396284</v>
       </c>
       <c r="T5">
-        <v>0.00279040848630471</v>
+        <v>0.003860818116761826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H6">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I6">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J6">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N6">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O6">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P6">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q6">
-        <v>26.55999225327301</v>
+        <v>362.4617934750166</v>
       </c>
       <c r="R6">
-        <v>159.359953519638</v>
+        <v>2174.7707608501</v>
       </c>
       <c r="S6">
-        <v>0.003536054431652752</v>
+        <v>0.07420899400825141</v>
       </c>
       <c r="T6">
-        <v>0.003102327807699439</v>
+        <v>0.05999315645924474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H7">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I7">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J7">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N7">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O7">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P7">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q7">
-        <v>229.959769558437</v>
+        <v>108.0785872823867</v>
       </c>
       <c r="R7">
-        <v>1379.758617350622</v>
+        <v>648.47152369432</v>
       </c>
       <c r="S7">
-        <v>0.03061560615285012</v>
+        <v>0.02212758249404769</v>
       </c>
       <c r="T7">
-        <v>0.02686034622865449</v>
+        <v>0.0178887146547579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J8">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N8">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O8">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P8">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q8">
-        <v>169.005662416896</v>
+        <v>142.097975422368</v>
       </c>
       <c r="R8">
-        <v>1014.033974501376</v>
+        <v>852.5878525342081</v>
       </c>
       <c r="S8">
-        <v>0.02250050436253534</v>
+        <v>0.02909257747032032</v>
       </c>
       <c r="T8">
-        <v>0.01974062948418177</v>
+        <v>0.02351946115568629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J9">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P9">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q9">
         <v>152.556259314816</v>
@@ -1013,10 +1013,10 @@
         <v>1373.006333833344</v>
       </c>
       <c r="S9">
-        <v>0.0203105193586811</v>
+        <v>0.03123376515046338</v>
       </c>
       <c r="T9">
-        <v>0.02672889666144223</v>
+        <v>0.03787570868986657</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J10">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N10">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O10">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P10">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q10">
-        <v>769.8909401212159</v>
+        <v>374.047028198336</v>
       </c>
       <c r="R10">
-        <v>6929.018461090944</v>
+        <v>3366.423253785024</v>
       </c>
       <c r="S10">
-        <v>0.1024991364735601</v>
+        <v>0.07658090914425662</v>
       </c>
       <c r="T10">
-        <v>0.1348901413256011</v>
+        <v>0.09286604391049441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J11">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N11">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O11">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P11">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q11">
-        <v>176.106803194176</v>
+        <v>143.981993154912</v>
       </c>
       <c r="R11">
-        <v>1056.640819165056</v>
+        <v>863.891958929472</v>
       </c>
       <c r="S11">
-        <v>0.02344591202967036</v>
+        <v>0.02947830380932391</v>
       </c>
       <c r="T11">
-        <v>0.02057007500094502</v>
+        <v>0.02383129587215909</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J12">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N12">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O12">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P12">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q12">
-        <v>130.528328344704</v>
+        <v>1491.55506793664</v>
       </c>
       <c r="R12">
-        <v>1174.754955102336</v>
+        <v>13423.99561142976</v>
       </c>
       <c r="S12">
-        <v>0.0173778391762384</v>
+        <v>0.3053750852974148</v>
       </c>
       <c r="T12">
-        <v>0.02286945298335301</v>
+        <v>0.3703139124005496</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J13">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N13">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O13">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P13">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q13">
-        <v>1130.130762869376</v>
+        <v>444.750777870848</v>
       </c>
       <c r="R13">
-        <v>10171.17686582438</v>
+        <v>4002.757000837632</v>
       </c>
       <c r="S13">
-        <v>0.1504595277846478</v>
+        <v>0.09105651520884452</v>
       </c>
       <c r="T13">
-        <v>0.1980066141522045</v>
+        <v>0.1104199262480986</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H14">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I14">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J14">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N14">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O14">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P14">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q14">
-        <v>272.757066535808</v>
+        <v>75.84715969310901</v>
       </c>
       <c r="R14">
-        <v>1091.028266143232</v>
+        <v>303.388638772436</v>
       </c>
       <c r="S14">
-        <v>0.03631340795175474</v>
+        <v>0.01552864748928847</v>
       </c>
       <c r="T14">
-        <v>0.02123951001670662</v>
+        <v>0.008369269258851597</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H15">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I15">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J15">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P15">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q15">
-        <v>246.209488944468</v>
+        <v>81.429442805508</v>
       </c>
       <c r="R15">
-        <v>1477.256933666808</v>
+        <v>488.576656833048</v>
       </c>
       <c r="S15">
-        <v>0.03277900634138022</v>
+        <v>0.01667154205499925</v>
       </c>
       <c r="T15">
-        <v>0.02875838730629767</v>
+        <v>0.01347785998569442</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H16">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I16">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J16">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N16">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O16">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P16">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q16">
-        <v>1242.521649138335</v>
+        <v>199.6538275521846</v>
       </c>
       <c r="R16">
-        <v>7455.129894830008</v>
+        <v>1197.922965313108</v>
       </c>
       <c r="S16">
-        <v>0.1654226455325364</v>
+        <v>0.0408763349938171</v>
       </c>
       <c r="T16">
-        <v>0.1451321757563918</v>
+        <v>0.03304586450116673</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H17">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I17">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J17">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N17">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O17">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P17">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q17">
-        <v>284.217548390498</v>
+        <v>76.85278551853099</v>
       </c>
       <c r="R17">
-        <v>1136.870193561992</v>
+        <v>307.411142074124</v>
       </c>
       <c r="S17">
-        <v>0.0378391948294282</v>
+        <v>0.01573453534339254</v>
       </c>
       <c r="T17">
-        <v>0.02213193426162354</v>
+        <v>0.008480233905921649</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H18">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I18">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J18">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N18">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O18">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P18">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q18">
-        <v>210.658763913492</v>
+        <v>796.1423453964866</v>
       </c>
       <c r="R18">
-        <v>1263.952583480952</v>
+        <v>4776.854072378919</v>
       </c>
       <c r="S18">
-        <v>0.02804597413280494</v>
+        <v>0.1629990349405347</v>
       </c>
       <c r="T18">
-        <v>0.02460590104817828</v>
+        <v>0.131774143236682</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H19">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I19">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J19">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N19">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O19">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P19">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q19">
-        <v>1823.910200841348</v>
+        <v>237.3931308488906</v>
       </c>
       <c r="R19">
-        <v>10943.46120504809</v>
+        <v>1424.358785093344</v>
       </c>
       <c r="S19">
-        <v>0.2428255884685711</v>
+        <v>0.04860293068648525</v>
       </c>
       <c r="T19">
-        <v>0.2130410009483154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.799402</v>
-      </c>
-      <c r="H20">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J20">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>14.423744</v>
-      </c>
-      <c r="N20">
-        <v>28.847488</v>
-      </c>
-      <c r="O20">
-        <v>0.06684772114689448</v>
-      </c>
-      <c r="P20">
-        <v>0.04668958901604687</v>
-      </c>
-      <c r="Q20">
-        <v>25.954113801088</v>
-      </c>
-      <c r="R20">
-        <v>155.724682806528</v>
-      </c>
-      <c r="S20">
-        <v>0.003455391035162955</v>
-      </c>
-      <c r="T20">
-        <v>0.003031558450827062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.799402</v>
-      </c>
-      <c r="H21">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J21">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.019874</v>
-      </c>
-      <c r="N21">
-        <v>39.059622</v>
-      </c>
-      <c r="O21">
-        <v>0.06034140002205402</v>
-      </c>
-      <c r="P21">
-        <v>0.06321790300431507</v>
-      </c>
-      <c r="Q21">
-        <v>23.427987315348</v>
-      </c>
-      <c r="R21">
-        <v>210.851885838132</v>
-      </c>
-      <c r="S21">
-        <v>0.003119076149614915</v>
-      </c>
-      <c r="T21">
-        <v>0.004104743094449356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.799402</v>
-      </c>
-      <c r="H22">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J22">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>65.70614066666667</v>
-      </c>
-      <c r="N22">
-        <v>197.118422</v>
-      </c>
-      <c r="O22">
-        <v>0.3045191157666107</v>
-      </c>
-      <c r="P22">
-        <v>0.3190356855568045</v>
-      </c>
-      <c r="Q22">
-        <v>118.2317609278813</v>
-      </c>
-      <c r="R22">
-        <v>1064.085848350932</v>
-      </c>
-      <c r="S22">
-        <v>0.01574074036635398</v>
-      </c>
-      <c r="T22">
-        <v>0.02071501054191599</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.799402</v>
-      </c>
-      <c r="H23">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J23">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>15.029789</v>
-      </c>
-      <c r="N23">
-        <v>30.059578</v>
-      </c>
-      <c r="O23">
-        <v>0.06965647365681629</v>
-      </c>
-      <c r="P23">
-        <v>0.04865135372673711</v>
-      </c>
-      <c r="Q23">
-        <v>27.044632386178</v>
-      </c>
-      <c r="R23">
-        <v>162.267794317068</v>
-      </c>
-      <c r="S23">
-        <v>0.003600576810777478</v>
-      </c>
-      <c r="T23">
-        <v>0.003158935977863834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.799402</v>
-      </c>
-      <c r="H24">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J24">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>11.139906</v>
-      </c>
-      <c r="N24">
-        <v>33.419718</v>
-      </c>
-      <c r="O24">
-        <v>0.05162857368313087</v>
-      </c>
-      <c r="P24">
-        <v>0.05408973212683835</v>
-      </c>
-      <c r="Q24">
-        <v>20.045169136212</v>
-      </c>
-      <c r="R24">
-        <v>180.406522225908</v>
-      </c>
-      <c r="S24">
-        <v>0.00266870594243478</v>
-      </c>
-      <c r="T24">
-        <v>0.003512050287607617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.799402</v>
-      </c>
-      <c r="H25">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J25">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>96.450714</v>
-      </c>
-      <c r="N25">
-        <v>289.352142</v>
-      </c>
-      <c r="O25">
-        <v>0.4470067157244936</v>
-      </c>
-      <c r="P25">
-        <v>0.4683157365692581</v>
-      </c>
-      <c r="Q25">
-        <v>173.553607673028</v>
-      </c>
-      <c r="R25">
-        <v>1561.982469057252</v>
-      </c>
-      <c r="S25">
-        <v>0.02310599331842454</v>
-      </c>
-      <c r="T25">
-        <v>0.03040777524008371</v>
+        <v>0.03929231576334158</v>
       </c>
     </row>
   </sheetData>
